--- a/scenarios/TEAM-Kenya_scenario-dev.xlsx
+++ b/scenarios/TEAM-Kenya_scenario-dev.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cenv0795\OneDrive - Nexus365\Work\CCG\Projects\KTESL\TEAM-KENYA\Scenario development\Scenario-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cenv0795\OneDrive - Nexus365\Code\CCG\TEAM-Kenya\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{B283B1B3-F6C7-4CFB-8D46-712B8D152C96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B6F93E4-1003-47A9-BCFA-F07DCA8EA519}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{B283B1B3-F6C7-4CFB-8D46-712B8D152C96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{40623FA7-E90F-40BF-9B85-6D0CACAE61D1}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="1320" windowWidth="18675" windowHeight="9345" activeTab="3" xr2:uid="{99CC90B4-E1ED-4097-AFCA-506C6C3497EB}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="280">
   <si>
     <t>Key macro indicators. Source: OBR (2022) Economic and fiscal outlook – March 2022. URL: https://obr.uk/efo/economic-and-fiscal-outlook-march-2022/</t>
   </si>
@@ -1102,6 +1102,24 @@
   </si>
   <si>
     <t>LOW/MEDIUM</t>
+  </si>
+  <si>
+    <t>Omoka has highest growth in public transport. Biggest shifts to buses and rail. Metro exists by 2050. Electric Dreams has comparatively higher car vkm - biggest shifts from bus to car and from walking to car/motorbike. Kujinao has rel importance of PT in future but less growth than Omoka - no metro. Street fighting has high walking.</t>
+  </si>
+  <si>
+    <t>Omoka focussed on growth of public e-mobility so subsidies highest for e-buses. Electric dreams has subsidies highest for e-cars and E2Ws. Street fighting = no subsidies. Kujinao has some subsidies for second-hand imported electric buses</t>
+  </si>
+  <si>
+    <t>Charging infrastructure</t>
+  </si>
+  <si>
+    <t>Awareness of e-mobility</t>
+  </si>
+  <si>
+    <t>Local assembly/manufacturing</t>
+  </si>
+  <si>
+    <t>Affects BEV uptake</t>
   </si>
 </sst>
 </file>
@@ -13812,7 +13830,7 @@
         <v>2.3685000321763341</v>
       </c>
       <c r="W39" s="31">
-        <f t="shared" ref="W39:Y58" si="7">M39/R39</f>
+        <f t="shared" ref="W39:Y39" si="7">M39/R39</f>
         <v>2.6200000014677522</v>
       </c>
       <c r="X39" s="31">
@@ -15054,18 +15072,18 @@
   <sheetPr>
     <tabColor rgb="FF305496"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30" style="6" customWidth="1"/>
     <col min="4" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="28" style="6" customWidth="1"/>
     <col min="9" max="9" width="64" style="6" customWidth="1"/>
@@ -15220,7 +15238,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -15245,8 +15263,11 @@
       <c r="H8" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="I8" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -15271,8 +15292,11 @@
       <c r="H9" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="I9" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -15296,6 +15320,9 @@
       </c>
       <c r="H10" s="6" t="s">
         <v>272</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -15322,6 +15349,72 @@
       </c>
       <c r="H11" s="6" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -15334,65 +15427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Government_x0020_Body xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">BEIS</Government_x0020_Body>
@@ -15452,7 +15486,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DE9D13BFC8DBA47B42E03E9ADFE5FFE" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4de712d00aa9d63862ce2f08b871e5fc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4" xmlns:ns3="0063f72e-ace3-48fb-9c1f-5b513408b31f" xmlns:ns4="b413c3fd-5a3b-4239-b985-69032e371c04" xmlns:ns5="a8f60570-4bd3-4f2b-950b-a996de8ab151" xmlns:ns6="aaacb922-5235-4a66-b188-303b9b46fbd7" xmlns:ns7="3f56fa74-ac24-4a79-8dfe-7511d38f3465" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbc79c9c677e811abea2fff5e805d0d1" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4"/>
@@ -15801,36 +15835,79 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E26855-7FF2-438F-8322-DE186DA218CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B0ACC6-BEE2-4028-BE08-44B8670BDB29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6F20EE4-B803-4722-AA93-5A9AA5B24963}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="0063f72e-ace3-48fb-9c1f-5b513408b31f"/>
     <ds:schemaRef ds:uri="aaacb922-5235-4a66-b188-303b9b46fbd7"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="3f56fa74-ac24-4a79-8dfe-7511d38f3465"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="a8f60570-4bd3-4f2b-950b-a996de8ab151"/>
     <ds:schemaRef ds:uri="b413c3fd-5a3b-4239-b985-69032e371c04"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -15838,7 +15915,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5B169-E03D-44A8-B3D8-53F30A47DA9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15859,4 +15936,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E26855-7FF2-438F-8322-DE186DA218CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B0ACC6-BEE2-4028-BE08-44B8670BDB29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/scenarios/TEAM-Kenya_scenario-dev.xlsx
+++ b/scenarios/TEAM-Kenya_scenario-dev.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cenv0795\OneDrive - Nexus365\Code\CCG\TEAM-Kenya\scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/cenv0795_ox_ac_uk/Documents/Code/CCG/TEAM-Kenya/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{B283B1B3-F6C7-4CFB-8D46-712B8D152C96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{40623FA7-E90F-40BF-9B85-6D0CACAE61D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DA6672-20B7-428D-B9A3-DC546802CE97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="1320" windowWidth="18675" windowHeight="9345" activeTab="3" xr2:uid="{99CC90B4-E1ED-4097-AFCA-506C6C3497EB}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="279">
   <si>
     <t>Key macro indicators. Source: OBR (2022) Economic and fiscal outlook – March 2022. URL: https://obr.uk/efo/economic-and-fiscal-outlook-march-2022/</t>
   </si>
@@ -1114,9 +1114,6 @@
   </si>
   <si>
     <t>Awareness of e-mobility</t>
-  </si>
-  <si>
-    <t>Local assembly/manufacturing</t>
   </si>
   <si>
     <t>Affects BEV uptake</t>
@@ -15072,11 +15069,11 @@
   <sheetPr>
     <tabColor rgb="FF305496"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15359,7 +15356,7 @@
         <v>276</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" t="s">
         <v>266</v>
@@ -15382,7 +15379,7 @@
         <v>277</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13" t="s">
         <v>266</v>
@@ -15394,26 +15391,6 @@
         <v>264</v>
       </c>
       <c r="G13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" t="s">
-        <v>267</v>
-      </c>
-      <c r="F14" t="s">
-        <v>264</v>
-      </c>
-      <c r="G14" t="s">
         <v>265</v>
       </c>
     </row>
@@ -15429,30 +15406,7 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Government_x0020_Body xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">BEIS</Government_x0020_Body>
-    <Date_x0020_Opened xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">2022-02-28T11:57:42+00:00</Date_x0020_Opened>
-    <LegacyData xmlns="aaacb922-5235-4a66-b188-303b9b46fbd7" xsi:nil="true"/>
-    <Descriptor xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f" xsi:nil="true"/>
-    <Security_x0020_Classification xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f">OFFICIAL</Security_x0020_Classification>
-    <Retention_x0020_Label xmlns="a8f60570-4bd3-4f2b-950b-a996de8ab151" xsi:nil="true"/>
-    <Date_x0020_Closed xmlns="b413c3fd-5a3b-4239-b985-69032e371c04" xsi:nil="true"/>
-    <TaxCatchAll xmlns="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4">
-      <Value>10</Value>
-    </TaxCatchAll>
-    <m975189f4ba442ecbf67d4147307b177 xmlns="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">BEIS:Science Innovation and Growth:Government Office Science</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">d16b7d45-db64-47ba-8a82-6049a67e54a9</TermId>
-        </TermInfo>
-      </Terms>
-    </m975189f4ba442ecbf67d4147307b177>
-    <_dlc_DocId xmlns="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4">PW3R3V2MVEXE-981779077-374</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4">
-      <Url>https://beisgov.sharepoint.com/sites/NetZero/_layouts/15/DocIdRedir.aspx?ID=PW3R3V2MVEXE-981779077-374</Url>
-      <Description>PW3R3V2MVEXE-981779077-374</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4">
+    <SharedWithUsers xmlns="ec776a2e-aa90-42fe-8c76-cfe3819c2a73">
       <UserInfo>
         <DisplayName>Snape, Jack (GO-Science)</DisplayName>
         <AccountId>12</AccountId>
@@ -15479,53 +15433,46 @@
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3f56fa74-ac24-4a79-8dfe-7511d38f3465">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_activity xmlns="5845f703-aefd-4152-9ce7-4004e1ab5465" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DE9D13BFC8DBA47B42E03E9ADFE5FFE" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4de712d00aa9d63862ce2f08b871e5fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4" xmlns:ns3="0063f72e-ace3-48fb-9c1f-5b513408b31f" xmlns:ns4="b413c3fd-5a3b-4239-b985-69032e371c04" xmlns:ns5="a8f60570-4bd3-4f2b-950b-a996de8ab151" xmlns:ns6="aaacb922-5235-4a66-b188-303b9b46fbd7" xmlns:ns7="3f56fa74-ac24-4a79-8dfe-7511d38f3465" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cbc79c9c677e811abea2fff5e805d0d1" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="">
-    <xsd:import namespace="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4"/>
-    <xsd:import namespace="0063f72e-ace3-48fb-9c1f-5b513408b31f"/>
-    <xsd:import namespace="b413c3fd-5a3b-4239-b985-69032e371c04"/>
-    <xsd:import namespace="a8f60570-4bd3-4f2b-950b-a996de8ab151"/>
-    <xsd:import namespace="aaacb922-5235-4a66-b188-303b9b46fbd7"/>
-    <xsd:import namespace="3f56fa74-ac24-4a79-8dfe-7511d38f3465"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4F4B9C8D4E5FB419F9CC5D98855FC2A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="92db766cf820f0a3f33beeff1e47ce9b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5845f703-aefd-4152-9ce7-4004e1ab5465" xmlns:ns4="ec776a2e-aa90-42fe-8c76-cfe3819c2a73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49aecd7956b7dd0d9a021778df15d4b1" ns3:_="" ns4:_="">
+    <xsd:import namespace="5845f703-aefd-4152-9ce7-4004e1ab5465"/>
+    <xsd:import namespace="ec776a2e-aa90-42fe-8c76-cfe3819c2a73"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns3:Security_x0020_Classification" minOccurs="0"/>
-                <xsd:element ref="ns3:Descriptor" minOccurs="0"/>
-                <xsd:element ref="ns2:m975189f4ba442ecbf67d4147307b177" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns4:Government_x0020_Body" minOccurs="0"/>
-                <xsd:element ref="ns4:Date_x0020_Opened" minOccurs="0"/>
-                <xsd:element ref="ns4:Date_x0020_Closed" minOccurs="0"/>
-                <xsd:element ref="ns5:Retention_x0020_Label" minOccurs="0"/>
-                <xsd:element ref="ns6:LegacyData" minOccurs="0"/>
-                <xsd:element ref="ns7:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns7:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns7:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns7:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns7:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns7:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns7:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns7:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns7:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns7:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -15533,61 +15480,78 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5845f703-aefd-4152-9ce7-4004e1ab5465" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:indexed="true" ma:internalName="_dlc_DocId" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="m975189f4ba442ecbf67d4147307b177" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="m975189f4ba442ecbf67d4147307b177" ma:taxonomyFieldName="Business_x0020_Unit" ma:displayName="Business Unit" ma:default="1;#BEIS:Science Innovation and Growth|327c80ad-4232-46bc-8b68-19c94b18be6c" ma:fieldId="{6975189f-4ba4-42ec-bf67-d4147307b177}" ma:sspId="9b0aeba9-2bce-41c2-8545-5d12d676a674" ma:termSetId="6f71e40e-3a2e-4baf-91d9-2069eb354530" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{fe6622fe-de44-45b7-955a-923e6a8acfb3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{fe6622fe-de44-45b7-955a-923e6a8acfb3}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="26" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ec776a2e-aa90-42fe-8c76-cfe3819c2a73" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -15606,133 +15570,16 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="27" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0063f72e-ace3-48fb-9c1f-5b513408b31f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Security_x0020_Classification" ma:index="11" nillable="true" ma:displayName="Security Classification" ma:default="OFFICIAL" ma:format="Dropdown" ma:indexed="true" ma:internalName="Security_x0020_Classification">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="OFFICIAL"/>
-          <xsd:enumeration value="OFFICIAL - SENSITIVE"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Descriptor" ma:index="12" nillable="true" ma:displayName="Descriptor" ma:default="" ma:format="Dropdown" ma:indexed="true" ma:internalName="Descriptor">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="COMMERCIAL"/>
-          <xsd:enumeration value="PERSONAL"/>
-          <xsd:enumeration value="LOCSEN"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b413c3fd-5a3b-4239-b985-69032e371c04" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Government_x0020_Body" ma:index="17" nillable="true" ma:displayName="Government Body" ma:default="BEIS" ma:internalName="Government_x0020_Body">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Date_x0020_Opened" ma:index="18" nillable="true" ma:displayName="Date Opened" ma:default="[Today]" ma:format="DateOnly" ma:internalName="Date_x0020_Opened">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Date_x0020_Closed" ma:index="19" nillable="true" ma:displayName="Date Closed" ma:format="DateOnly" ma:internalName="Date_x0020_Closed">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a8f60570-4bd3-4f2b-950b-a996de8ab151" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Retention_x0020_Label" ma:index="20" nillable="true" ma:displayName="Retention Label" ma:internalName="Retention_x0020_Label">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aaacb922-5235-4a66-b188-303b9b46fbd7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="LegacyData" ma:index="21" nillable="true" ma:displayName="Legacy Data" ma:internalName="LegacyData">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3f56fa74-ac24-4a79-8dfe-7511d38f3465" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="22" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="23" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="24" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="25" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="29" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9b0aeba9-2bce-41c2-8545-5d12d676a674" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="30" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="31" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="SharingHintHash" ma:index="21" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="32" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="33" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="34" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -15835,99 +15682,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6F20EE4-B803-4722-AA93-5A9AA5B24963}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0063f72e-ace3-48fb-9c1f-5b513408b31f"/>
-    <ds:schemaRef ds:uri="aaacb922-5235-4a66-b188-303b9b46fbd7"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ec776a2e-aa90-42fe-8c76-cfe3819c2a73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5845f703-aefd-4152-9ce7-4004e1ab5465"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3f56fa74-ac24-4a79-8dfe-7511d38f3465"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a8f60570-4bd3-4f2b-950b-a996de8ab151"/>
-    <ds:schemaRef ds:uri="b413c3fd-5a3b-4239-b985-69032e371c04"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5B169-E03D-44A8-B3D8-53F30A47DA9A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B0ACC6-BEE2-4028-BE08-44B8670BDB29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA896614-F36B-4705-A471-C7AA800C9F3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee8ffc87-902d-4bac-b85c-eb53ffbb7ab4"/>
-    <ds:schemaRef ds:uri="0063f72e-ace3-48fb-9c1f-5b513408b31f"/>
-    <ds:schemaRef ds:uri="b413c3fd-5a3b-4239-b985-69032e371c04"/>
-    <ds:schemaRef ds:uri="a8f60570-4bd3-4f2b-950b-a996de8ab151"/>
-    <ds:schemaRef ds:uri="aaacb922-5235-4a66-b188-303b9b46fbd7"/>
-    <ds:schemaRef ds:uri="3f56fa74-ac24-4a79-8dfe-7511d38f3465"/>
+    <ds:schemaRef ds:uri="5845f703-aefd-4152-9ce7-4004e1ab5465"/>
+    <ds:schemaRef ds:uri="ec776a2e-aa90-42fe-8c76-cfe3819c2a73"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -15936,20 +15724,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E26855-7FF2-438F-8322-DE186DA218CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B0ACC6-BEE2-4028-BE08-44B8670BDB29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>